--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>177.805160911397</v>
+        <v>197.1981153333333</v>
       </c>
       <c r="H2">
-        <v>177.805160911397</v>
+        <v>591.594346</v>
       </c>
       <c r="I2">
-        <v>0.4870593079478884</v>
+        <v>0.5013718116429122</v>
       </c>
       <c r="J2">
-        <v>0.4870593079478884</v>
+        <v>0.5302871392468994</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.60597633143266</v>
+        <v>4.006170333333333</v>
       </c>
       <c r="N2">
-        <v>3.60597633143266</v>
+        <v>12.018511</v>
       </c>
       <c r="O2">
-        <v>0.05243384501558469</v>
+        <v>0.05496065106112269</v>
       </c>
       <c r="P2">
-        <v>0.05243384501558469</v>
+        <v>0.06019443438116229</v>
       </c>
       <c r="Q2">
-        <v>641.1612018530732</v>
+        <v>790.0092394376451</v>
       </c>
       <c r="R2">
-        <v>641.1612018530732</v>
+        <v>7110.083154938806</v>
       </c>
       <c r="S2">
-        <v>0.02553839226633752</v>
+        <v>0.02755572119158903</v>
       </c>
       <c r="T2">
-        <v>0.02553839226633752</v>
+        <v>0.03192033440657176</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>177.805160911397</v>
+        <v>197.1981153333333</v>
       </c>
       <c r="H3">
-        <v>177.805160911397</v>
+        <v>591.594346</v>
       </c>
       <c r="I3">
-        <v>0.4870593079478884</v>
+        <v>0.5013718116429122</v>
       </c>
       <c r="J3">
-        <v>0.4870593079478884</v>
+        <v>0.5302871392468994</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.13057881956</v>
+        <v>32.65736066666667</v>
       </c>
       <c r="N3">
-        <v>31.13057881956</v>
+        <v>97.972082</v>
       </c>
       <c r="O3">
-        <v>0.4526640762563571</v>
+        <v>0.4480263330901556</v>
       </c>
       <c r="P3">
-        <v>0.4526640762563571</v>
+        <v>0.490690906813236</v>
       </c>
       <c r="Q3">
-        <v>5535.177576276793</v>
+        <v>6439.969975227597</v>
       </c>
       <c r="R3">
-        <v>5535.177576276793</v>
+        <v>57959.72977704837</v>
       </c>
       <c r="S3">
-        <v>0.2204742517142915</v>
+        <v>0.2246277742851421</v>
       </c>
       <c r="T3">
-        <v>0.2204742517142915</v>
+        <v>0.2602070772284578</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>177.805160911397</v>
+        <v>197.1981153333333</v>
       </c>
       <c r="H4">
-        <v>177.805160911397</v>
+        <v>591.594346</v>
       </c>
       <c r="I4">
-        <v>0.4870593079478884</v>
+        <v>0.5013718116429122</v>
       </c>
       <c r="J4">
-        <v>0.4870593079478884</v>
+        <v>0.5302871392468994</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.88443223641892</v>
+        <v>8.814931666666666</v>
       </c>
       <c r="N4">
-        <v>6.88443223641892</v>
+        <v>26.444795</v>
       </c>
       <c r="O4">
-        <v>0.1001052751672577</v>
+        <v>0.1209320481029573</v>
       </c>
       <c r="P4">
-        <v>0.1001052751672577</v>
+        <v>0.1324481441462082</v>
       </c>
       <c r="Q4">
-        <v>1224.087581580075</v>
+        <v>1738.287911458785</v>
       </c>
       <c r="R4">
-        <v>1224.087581580075</v>
+        <v>15644.59120312907</v>
       </c>
       <c r="S4">
-        <v>0.04875720604489747</v>
+        <v>0.06063192004306753</v>
       </c>
       <c r="T4">
-        <v>0.04875720604489747</v>
+        <v>0.07023554745785369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>177.805160911397</v>
+        <v>197.1981153333333</v>
       </c>
       <c r="H5">
-        <v>177.805160911397</v>
+        <v>591.594346</v>
       </c>
       <c r="I5">
-        <v>0.4870593079478884</v>
+        <v>0.5013718116429122</v>
       </c>
       <c r="J5">
-        <v>0.4870593079478884</v>
+        <v>0.5302871392468994</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.307946000139509</v>
+        <v>8.399816666666666</v>
       </c>
       <c r="N5">
-        <v>8.307946000139509</v>
+        <v>25.19945</v>
       </c>
       <c r="O5">
-        <v>0.120804329515965</v>
+        <v>0.1152370853912109</v>
       </c>
       <c r="P5">
-        <v>0.120804329515965</v>
+        <v>0.1262108625158624</v>
       </c>
       <c r="Q5">
-        <v>1477.195675398003</v>
+        <v>1656.428015812189</v>
       </c>
       <c r="R5">
-        <v>1477.195675398003</v>
+        <v>14907.8521423097</v>
       </c>
       <c r="S5">
-        <v>0.0588388731311546</v>
+        <v>0.0577766262710404</v>
       </c>
       <c r="T5">
-        <v>0.0588388731311546</v>
+        <v>0.06692799722542041</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>177.805160911397</v>
+        <v>197.1981153333333</v>
       </c>
       <c r="H6">
-        <v>177.805160911397</v>
+        <v>591.594346</v>
       </c>
       <c r="I6">
-        <v>0.4870593079478884</v>
+        <v>0.5013718116429122</v>
       </c>
       <c r="J6">
-        <v>0.4870593079478884</v>
+        <v>0.5302871392468994</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.8429892200866</v>
+        <v>19.0133305</v>
       </c>
       <c r="N6">
-        <v>18.8429892200866</v>
+        <v>38.026661</v>
       </c>
       <c r="O6">
-        <v>0.2739924740448354</v>
+        <v>0.2608438823545532</v>
       </c>
       <c r="P6">
-        <v>0.2739924740448354</v>
+        <v>0.1904556521435312</v>
       </c>
       <c r="Q6">
-        <v>3350.380730329217</v>
+        <v>3749.392940809785</v>
       </c>
       <c r="R6">
-        <v>3350.380730329217</v>
+        <v>22496.35764485871</v>
       </c>
       <c r="S6">
-        <v>0.1334505847912073</v>
+        <v>0.130779769852073</v>
       </c>
       <c r="T6">
-        <v>0.1334505847912073</v>
+        <v>0.1009961829285958</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>124.104456267658</v>
+        <v>131.273506</v>
       </c>
       <c r="H7">
-        <v>124.104456267658</v>
+        <v>393.820518</v>
       </c>
       <c r="I7">
-        <v>0.3399576833042308</v>
+        <v>0.3337599622221713</v>
       </c>
       <c r="J7">
-        <v>0.3399576833042308</v>
+        <v>0.3530087082119477</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.60597633143266</v>
+        <v>4.006170333333333</v>
       </c>
       <c r="N7">
-        <v>3.60597633143266</v>
+        <v>12.018511</v>
       </c>
       <c r="O7">
-        <v>0.05243384501558469</v>
+        <v>0.05496065106112269</v>
       </c>
       <c r="P7">
-        <v>0.05243384501558469</v>
+        <v>0.06019443438116229</v>
       </c>
       <c r="Q7">
-        <v>447.5177319264944</v>
+        <v>525.9040252898553</v>
       </c>
       <c r="R7">
-        <v>447.5177319264944</v>
+        <v>4733.136227608698</v>
       </c>
       <c r="S7">
-        <v>0.01782528847823126</v>
+        <v>0.01834366482186625</v>
       </c>
       <c r="T7">
-        <v>0.01782528847823126</v>
+        <v>0.02124915952244296</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>124.104456267658</v>
+        <v>131.273506</v>
       </c>
       <c r="H8">
-        <v>124.104456267658</v>
+        <v>393.820518</v>
       </c>
       <c r="I8">
-        <v>0.3399576833042308</v>
+        <v>0.3337599622221713</v>
       </c>
       <c r="J8">
-        <v>0.3399576833042308</v>
+        <v>0.3530087082119477</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.13057881956</v>
+        <v>32.65736066666667</v>
       </c>
       <c r="N8">
-        <v>31.13057881956</v>
+        <v>97.972082</v>
       </c>
       <c r="O8">
-        <v>0.4526640762563571</v>
+        <v>0.4480263330901556</v>
       </c>
       <c r="P8">
-        <v>0.4526640762563571</v>
+        <v>0.490690906813236</v>
       </c>
       <c r="Q8">
-        <v>3863.443557698964</v>
+        <v>4287.046231419831</v>
       </c>
       <c r="R8">
-        <v>3863.443557698964</v>
+        <v>38583.41608277847</v>
       </c>
       <c r="S8">
-        <v>0.1538866306791608</v>
+        <v>0.1495332520067083</v>
       </c>
       <c r="T8">
-        <v>0.1538866306791608</v>
+        <v>0.1732181631454897</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>124.104456267658</v>
+        <v>131.273506</v>
       </c>
       <c r="H9">
-        <v>124.104456267658</v>
+        <v>393.820518</v>
       </c>
       <c r="I9">
-        <v>0.3399576833042308</v>
+        <v>0.3337599622221713</v>
       </c>
       <c r="J9">
-        <v>0.3399576833042308</v>
+        <v>0.3530087082119477</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.88443223641892</v>
+        <v>8.814931666666666</v>
       </c>
       <c r="N9">
-        <v>6.88443223641892</v>
+        <v>26.444795</v>
       </c>
       <c r="O9">
-        <v>0.1001052751672577</v>
+        <v>0.1209320481029573</v>
       </c>
       <c r="P9">
-        <v>0.1001052751672577</v>
+        <v>0.1324481441462082</v>
       </c>
       <c r="Q9">
-        <v>854.3887194123068</v>
+        <v>1157.166985033757</v>
       </c>
       <c r="R9">
-        <v>854.3887194123068</v>
+        <v>10414.50286530381</v>
       </c>
       <c r="S9">
-        <v>0.03403155743239346</v>
+        <v>0.04036227580629284</v>
       </c>
       <c r="T9">
-        <v>0.03403155743239346</v>
+        <v>0.04675534827012279</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>124.104456267658</v>
+        <v>131.273506</v>
       </c>
       <c r="H10">
-        <v>124.104456267658</v>
+        <v>393.820518</v>
       </c>
       <c r="I10">
-        <v>0.3399576833042308</v>
+        <v>0.3337599622221713</v>
       </c>
       <c r="J10">
-        <v>0.3399576833042308</v>
+        <v>0.3530087082119477</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.307946000139509</v>
+        <v>8.399816666666666</v>
       </c>
       <c r="N10">
-        <v>8.307946000139509</v>
+        <v>25.19945</v>
       </c>
       <c r="O10">
-        <v>0.120804329515965</v>
+        <v>0.1152370853912109</v>
       </c>
       <c r="P10">
-        <v>0.120804329515965</v>
+        <v>0.1262108625158624</v>
       </c>
       <c r="Q10">
-        <v>1031.053121048378</v>
+        <v>1102.673383590567</v>
       </c>
       <c r="R10">
-        <v>1031.053121048378</v>
+        <v>9924.0604523151</v>
       </c>
       <c r="S10">
-        <v>0.04106835999536838</v>
+        <v>0.03846152526676369</v>
       </c>
       <c r="T10">
-        <v>0.04106835999536838</v>
+        <v>0.04455353353904033</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>124.104456267658</v>
+        <v>131.273506</v>
       </c>
       <c r="H11">
-        <v>124.104456267658</v>
+        <v>393.820518</v>
       </c>
       <c r="I11">
-        <v>0.3399576833042308</v>
+        <v>0.3337599622221713</v>
       </c>
       <c r="J11">
-        <v>0.3399576833042308</v>
+        <v>0.3530087082119477</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.8429892200866</v>
+        <v>19.0133305</v>
       </c>
       <c r="N11">
-        <v>18.8429892200866</v>
+        <v>38.026661</v>
       </c>
       <c r="O11">
-        <v>0.2739924740448354</v>
+        <v>0.2608438823545532</v>
       </c>
       <c r="P11">
-        <v>0.2739924740448354</v>
+        <v>0.1904556521435312</v>
       </c>
       <c r="Q11">
-        <v>2338.498931616189</v>
+        <v>2495.946555471733</v>
       </c>
       <c r="R11">
-        <v>2338.498931616189</v>
+        <v>14975.6793328304</v>
       </c>
       <c r="S11">
-        <v>0.09314584671907682</v>
+        <v>0.08705924432054019</v>
       </c>
       <c r="T11">
-        <v>0.09314584671907682</v>
+        <v>0.06723250373485203</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.188644155035509</v>
+        <v>0.278468</v>
       </c>
       <c r="H12">
-        <v>0.188644155035509</v>
+        <v>0.835404</v>
       </c>
       <c r="I12">
-        <v>0.0005167504201174162</v>
+        <v>0.0007079986814710624</v>
       </c>
       <c r="J12">
-        <v>0.0005167504201174162</v>
+        <v>0.0007488306814808822</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.60597633143266</v>
+        <v>4.006170333333333</v>
       </c>
       <c r="N12">
-        <v>3.60597633143266</v>
+        <v>12.018511</v>
       </c>
       <c r="O12">
-        <v>0.05243384501558469</v>
+        <v>0.05496065106112269</v>
       </c>
       <c r="P12">
-        <v>0.05243384501558469</v>
+        <v>0.06019443438116229</v>
       </c>
       <c r="Q12">
-        <v>0.6802463581211586</v>
+        <v>1.115590240382667</v>
       </c>
       <c r="R12">
-        <v>0.6802463581211586</v>
+        <v>10.040312163444</v>
       </c>
       <c r="S12">
-        <v>2.709521144017488E-05</v>
+        <v>3.891206848406601E-05</v>
       </c>
       <c r="T12">
-        <v>2.709521144017488E-05</v>
+        <v>4.507543931900201E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.188644155035509</v>
+        <v>0.278468</v>
       </c>
       <c r="H13">
-        <v>0.188644155035509</v>
+        <v>0.835404</v>
       </c>
       <c r="I13">
-        <v>0.0005167504201174162</v>
+        <v>0.0007079986814710624</v>
       </c>
       <c r="J13">
-        <v>0.0005167504201174162</v>
+        <v>0.0007488306814808822</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>31.13057881956</v>
+        <v>32.65736066666667</v>
       </c>
       <c r="N13">
-        <v>31.13057881956</v>
+        <v>97.972082</v>
       </c>
       <c r="O13">
-        <v>0.4526640762563571</v>
+        <v>0.4480263330901556</v>
       </c>
       <c r="P13">
-        <v>0.4526640762563571</v>
+        <v>0.490690906813236</v>
       </c>
       <c r="Q13">
-        <v>5.872601737182209</v>
+        <v>9.094029910125334</v>
       </c>
       <c r="R13">
-        <v>5.872601737182209</v>
+        <v>81.846269191128</v>
       </c>
       <c r="S13">
-        <v>0.0002339143515775347</v>
+        <v>0.0003172020530921451</v>
       </c>
       <c r="T13">
-        <v>0.0002339143515775347</v>
+        <v>0.0003674444061454275</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.188644155035509</v>
+        <v>0.278468</v>
       </c>
       <c r="H14">
-        <v>0.188644155035509</v>
+        <v>0.835404</v>
       </c>
       <c r="I14">
-        <v>0.0005167504201174162</v>
+        <v>0.0007079986814710624</v>
       </c>
       <c r="J14">
-        <v>0.0005167504201174162</v>
+        <v>0.0007488306814808822</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.88443223641892</v>
+        <v>8.814931666666666</v>
       </c>
       <c r="N14">
-        <v>6.88443223641892</v>
+        <v>26.444795</v>
       </c>
       <c r="O14">
-        <v>0.1001052751672577</v>
+        <v>0.1209320481029573</v>
       </c>
       <c r="P14">
-        <v>0.1001052751672577</v>
+        <v>0.1324481441462082</v>
       </c>
       <c r="Q14">
-        <v>1.298707902138467</v>
+        <v>2.454676391353333</v>
       </c>
       <c r="R14">
-        <v>1.298707902138467</v>
+        <v>22.09208752218</v>
       </c>
       <c r="S14">
-        <v>5.172944299864995E-05</v>
+        <v>8.561973060448888E-05</v>
       </c>
       <c r="T14">
-        <v>5.172944299864995E-05</v>
+        <v>9.918123404188318E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.188644155035509</v>
+        <v>0.278468</v>
       </c>
       <c r="H15">
-        <v>0.188644155035509</v>
+        <v>0.835404</v>
       </c>
       <c r="I15">
-        <v>0.0005167504201174162</v>
+        <v>0.0007079986814710624</v>
       </c>
       <c r="J15">
-        <v>0.0005167504201174162</v>
+        <v>0.0007488306814808822</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.307946000139509</v>
+        <v>8.399816666666666</v>
       </c>
       <c r="N15">
-        <v>8.307946000139509</v>
+        <v>25.19945</v>
       </c>
       <c r="O15">
-        <v>0.120804329515965</v>
+        <v>0.1152370853912109</v>
       </c>
       <c r="P15">
-        <v>0.120804329515965</v>
+        <v>0.1262108625158624</v>
       </c>
       <c r="Q15">
-        <v>1.567245453276954</v>
+        <v>2.339080147533333</v>
       </c>
       <c r="R15">
-        <v>1.567245453276954</v>
+        <v>21.0517213278</v>
       </c>
       <c r="S15">
-        <v>6.242568802937771E-05</v>
+        <v>8.158770451354557E-05</v>
       </c>
       <c r="T15">
-        <v>6.242568802937771E-05</v>
+        <v>9.451056618804317E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.188644155035509</v>
+        <v>0.278468</v>
       </c>
       <c r="H16">
-        <v>0.188644155035509</v>
+        <v>0.835404</v>
       </c>
       <c r="I16">
-        <v>0.0005167504201174162</v>
+        <v>0.0007079986814710624</v>
       </c>
       <c r="J16">
-        <v>0.0005167504201174162</v>
+        <v>0.0007488306814808822</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.8429892200866</v>
+        <v>19.0133305</v>
       </c>
       <c r="N16">
-        <v>18.8429892200866</v>
+        <v>38.026661</v>
       </c>
       <c r="O16">
-        <v>0.2739924740448354</v>
+        <v>0.2608438823545532</v>
       </c>
       <c r="P16">
-        <v>0.2739924740448354</v>
+        <v>0.1904556521435312</v>
       </c>
       <c r="Q16">
-        <v>3.554619779766441</v>
+        <v>5.294604117674001</v>
       </c>
       <c r="R16">
-        <v>3.554619779766441</v>
+        <v>31.767624706044</v>
       </c>
       <c r="S16">
-        <v>0.0001415857260716789</v>
+        <v>0.0001846771247768166</v>
       </c>
       <c r="T16">
-        <v>0.0001415857260716789</v>
+        <v>0.0001426190357865263</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.194865120116253</v>
+        <v>0.2270173333333333</v>
       </c>
       <c r="H17">
-        <v>0.194865120116253</v>
+        <v>0.681052</v>
       </c>
       <c r="I17">
-        <v>0.000533791426865837</v>
+        <v>0.0005771865085793579</v>
       </c>
       <c r="J17">
-        <v>0.000533791426865837</v>
+        <v>0.0006104742535155658</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.60597633143266</v>
+        <v>4.006170333333333</v>
       </c>
       <c r="N17">
-        <v>3.60597633143266</v>
+        <v>12.018511</v>
       </c>
       <c r="O17">
-        <v>0.05243384501558469</v>
+        <v>0.05496065106112269</v>
       </c>
       <c r="P17">
-        <v>0.05243384501558469</v>
+        <v>0.06019443438116229</v>
       </c>
       <c r="Q17">
-        <v>0.7026790109609907</v>
+        <v>0.9094701059524444</v>
       </c>
       <c r="R17">
-        <v>0.7026790109609907</v>
+        <v>8.185230953572001</v>
       </c>
       <c r="S17">
-        <v>2.798873694693111E-05</v>
+        <v>3.172254629521779E-05</v>
       </c>
       <c r="T17">
-        <v>2.798873694693111E-05</v>
+        <v>3.674715239463176E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.194865120116253</v>
+        <v>0.2270173333333333</v>
       </c>
       <c r="H18">
-        <v>0.194865120116253</v>
+        <v>0.681052</v>
       </c>
       <c r="I18">
-        <v>0.000533791426865837</v>
+        <v>0.0005771865085793579</v>
       </c>
       <c r="J18">
-        <v>0.000533791426865837</v>
+        <v>0.0006104742535155658</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>31.13057881956</v>
+        <v>32.65736066666667</v>
       </c>
       <c r="N18">
-        <v>31.13057881956</v>
+        <v>97.972082</v>
       </c>
       <c r="O18">
-        <v>0.4526640762563571</v>
+        <v>0.4480263330901556</v>
       </c>
       <c r="P18">
-        <v>0.4526640762563571</v>
+        <v>0.490690906813236</v>
       </c>
       <c r="Q18">
-        <v>6.066263980962042</v>
+        <v>7.413786932251556</v>
       </c>
       <c r="R18">
-        <v>6.066263980962042</v>
+        <v>66.724082390264</v>
       </c>
       <c r="S18">
-        <v>0.0002416282031557869</v>
+        <v>0.0002585947549479193</v>
       </c>
       <c r="T18">
-        <v>0.0002416282031557869</v>
+        <v>0.0002995541650436863</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.194865120116253</v>
+        <v>0.2270173333333333</v>
       </c>
       <c r="H19">
-        <v>0.194865120116253</v>
+        <v>0.681052</v>
       </c>
       <c r="I19">
-        <v>0.000533791426865837</v>
+        <v>0.0005771865085793579</v>
       </c>
       <c r="J19">
-        <v>0.000533791426865837</v>
+        <v>0.0006104742535155658</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.88443223641892</v>
+        <v>8.814931666666666</v>
       </c>
       <c r="N19">
-        <v>6.88443223641892</v>
+        <v>26.444795</v>
       </c>
       <c r="O19">
-        <v>0.1001052751672577</v>
+        <v>0.1209320481029573</v>
       </c>
       <c r="P19">
-        <v>0.1001052751672577</v>
+        <v>0.1324481441462082</v>
       </c>
       <c r="Q19">
-        <v>1.341535714681977</v>
+        <v>2.001142280482222</v>
       </c>
       <c r="R19">
-        <v>1.341535714681977</v>
+        <v>18.01028052434</v>
       </c>
       <c r="S19">
-        <v>5.343533766832771E-05</v>
+        <v>6.98003466198969E-05</v>
       </c>
       <c r="T19">
-        <v>5.343533766832771E-05</v>
+        <v>8.085618192717849E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.194865120116253</v>
+        <v>0.2270173333333333</v>
       </c>
       <c r="H20">
-        <v>0.194865120116253</v>
+        <v>0.681052</v>
       </c>
       <c r="I20">
-        <v>0.000533791426865837</v>
+        <v>0.0005771865085793579</v>
       </c>
       <c r="J20">
-        <v>0.000533791426865837</v>
+        <v>0.0006104742535155658</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.307946000139509</v>
+        <v>8.399816666666666</v>
       </c>
       <c r="N20">
-        <v>8.307946000139509</v>
+        <v>25.19945</v>
       </c>
       <c r="O20">
-        <v>0.120804329515965</v>
+        <v>0.1152370853912109</v>
       </c>
       <c r="P20">
-        <v>0.120804329515965</v>
+        <v>0.1262108625158624</v>
       </c>
       <c r="Q20">
-        <v>1.618928895236529</v>
+        <v>1.906903980155555</v>
       </c>
       <c r="R20">
-        <v>1.618928895236529</v>
+        <v>17.1621358214</v>
       </c>
       <c r="S20">
-        <v>6.448431542389772E-05</v>
+        <v>6.651329097581437E-05</v>
       </c>
       <c r="T20">
-        <v>6.448431542389772E-05</v>
+        <v>7.704848207992681E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.194865120116253</v>
+        <v>0.2270173333333333</v>
       </c>
       <c r="H21">
-        <v>0.194865120116253</v>
+        <v>0.681052</v>
       </c>
       <c r="I21">
-        <v>0.000533791426865837</v>
+        <v>0.0005771865085793579</v>
       </c>
       <c r="J21">
-        <v>0.000533791426865837</v>
+        <v>0.0006104742535155658</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>18.8429892200866</v>
+        <v>19.0133305</v>
       </c>
       <c r="N21">
-        <v>18.8429892200866</v>
+        <v>38.026661</v>
       </c>
       <c r="O21">
-        <v>0.2739924740448354</v>
+        <v>0.2608438823545532</v>
       </c>
       <c r="P21">
-        <v>0.2739924740448354</v>
+        <v>0.1904556521435312</v>
       </c>
       <c r="Q21">
-        <v>3.671841357721436</v>
+        <v>4.316355587895334</v>
       </c>
       <c r="R21">
-        <v>3.671841357721436</v>
+        <v>25.898133527372</v>
       </c>
       <c r="S21">
-        <v>0.0001462548336708935</v>
+        <v>0.0001505555697405094</v>
       </c>
       <c r="T21">
-        <v>0.0001462548336708935</v>
+        <v>0.0001162682720701425</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>62.7654157191024</v>
+        <v>64.34001000000001</v>
       </c>
       <c r="H22">
-        <v>62.7654157191024</v>
+        <v>128.68002</v>
       </c>
       <c r="I22">
-        <v>0.1719324669008976</v>
+        <v>0.1635830409448661</v>
       </c>
       <c r="J22">
-        <v>0.1719324669008976</v>
+        <v>0.1153448476061565</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.60597633143266</v>
+        <v>4.006170333333333</v>
       </c>
       <c r="N22">
-        <v>3.60597633143266</v>
+        <v>12.018511</v>
       </c>
       <c r="O22">
-        <v>0.05243384501558469</v>
+        <v>0.05496065106112269</v>
       </c>
       <c r="P22">
-        <v>0.05243384501558469</v>
+        <v>0.06019443438116229</v>
       </c>
       <c r="Q22">
-        <v>226.3306035156147</v>
+        <v>257.7570393083701</v>
       </c>
       <c r="R22">
-        <v>226.3306035156147</v>
+        <v>1546.54223585022</v>
       </c>
       <c r="S22">
-        <v>0.009015080322628809</v>
+        <v>0.008990630432888131</v>
       </c>
       <c r="T22">
-        <v>0.009015080322628809</v>
+        <v>0.00694311786043395</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>62.7654157191024</v>
+        <v>64.34001000000001</v>
       </c>
       <c r="H23">
-        <v>62.7654157191024</v>
+        <v>128.68002</v>
       </c>
       <c r="I23">
-        <v>0.1719324669008976</v>
+        <v>0.1635830409448661</v>
       </c>
       <c r="J23">
-        <v>0.1719324669008976</v>
+        <v>0.1153448476061565</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.13057881956</v>
+        <v>32.65736066666667</v>
       </c>
       <c r="N23">
-        <v>31.13057881956</v>
+        <v>97.972082</v>
       </c>
       <c r="O23">
-        <v>0.4526640762563571</v>
+        <v>0.4480263330901556</v>
       </c>
       <c r="P23">
-        <v>0.4526640762563571</v>
+        <v>0.490690906813236</v>
       </c>
       <c r="Q23">
-        <v>1953.923721185967</v>
+        <v>2101.17491186694</v>
       </c>
       <c r="R23">
-        <v>1953.923721185967</v>
+        <v>12607.04947120164</v>
       </c>
       <c r="S23">
-        <v>0.0778276513081715</v>
+        <v>0.07328950999026514</v>
       </c>
       <c r="T23">
-        <v>0.0778276513081715</v>
+        <v>0.05659866786809943</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>62.7654157191024</v>
+        <v>64.34001000000001</v>
       </c>
       <c r="H24">
-        <v>62.7654157191024</v>
+        <v>128.68002</v>
       </c>
       <c r="I24">
-        <v>0.1719324669008976</v>
+        <v>0.1635830409448661</v>
       </c>
       <c r="J24">
-        <v>0.1719324669008976</v>
+        <v>0.1153448476061565</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.88443223641892</v>
+        <v>8.814931666666666</v>
       </c>
       <c r="N24">
-        <v>6.88443223641892</v>
+        <v>26.444795</v>
       </c>
       <c r="O24">
-        <v>0.1001052751672577</v>
+        <v>0.1209320481029573</v>
       </c>
       <c r="P24">
-        <v>0.1001052751672577</v>
+        <v>0.1324481441462082</v>
       </c>
       <c r="Q24">
-        <v>432.1042513088234</v>
+        <v>567.15279158265</v>
       </c>
       <c r="R24">
-        <v>432.1042513088234</v>
+        <v>3402.9167494959</v>
       </c>
       <c r="S24">
-        <v>0.01721134690929977</v>
+        <v>0.01978243217637259</v>
       </c>
       <c r="T24">
-        <v>0.01721134690929977</v>
+        <v>0.01527721100226263</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>62.7654157191024</v>
+        <v>64.34001000000001</v>
       </c>
       <c r="H25">
-        <v>62.7654157191024</v>
+        <v>128.68002</v>
       </c>
       <c r="I25">
-        <v>0.1719324669008976</v>
+        <v>0.1635830409448661</v>
       </c>
       <c r="J25">
-        <v>0.1719324669008976</v>
+        <v>0.1153448476061565</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.307946000139509</v>
+        <v>8.399816666666666</v>
       </c>
       <c r="N25">
-        <v>8.307946000139509</v>
+        <v>25.19945</v>
       </c>
       <c r="O25">
-        <v>0.120804329515965</v>
+        <v>0.1152370853912109</v>
       </c>
       <c r="P25">
-        <v>0.120804329515965</v>
+        <v>0.1262108625158624</v>
       </c>
       <c r="Q25">
-        <v>521.4516844706103</v>
+        <v>540.4442883315</v>
       </c>
       <c r="R25">
-        <v>521.4516844706103</v>
+        <v>3242.665729989</v>
       </c>
       <c r="S25">
-        <v>0.02077018638598878</v>
+        <v>0.01885083285791749</v>
       </c>
       <c r="T25">
-        <v>0.02077018638598878</v>
+        <v>0.01455777270313372</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>62.7654157191024</v>
+        <v>64.34001000000001</v>
       </c>
       <c r="H26">
-        <v>62.7654157191024</v>
+        <v>128.68002</v>
       </c>
       <c r="I26">
-        <v>0.1719324669008976</v>
+        <v>0.1635830409448661</v>
       </c>
       <c r="J26">
-        <v>0.1719324669008976</v>
+        <v>0.1153448476061565</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>18.8429892200866</v>
+        <v>19.0133305</v>
       </c>
       <c r="N26">
-        <v>18.8429892200866</v>
+        <v>38.026661</v>
       </c>
       <c r="O26">
-        <v>0.2739924740448354</v>
+        <v>0.2608438823545532</v>
       </c>
       <c r="P26">
-        <v>0.2739924740448354</v>
+        <v>0.1904556521435312</v>
       </c>
       <c r="Q26">
-        <v>1182.688051789301</v>
+        <v>1223.317874503305</v>
       </c>
       <c r="R26">
-        <v>1182.688051789301</v>
+        <v>4893.271498013221</v>
       </c>
       <c r="S26">
-        <v>0.0471082019748087</v>
+        <v>0.04266963548742272</v>
       </c>
       <c r="T26">
-        <v>0.0471082019748087</v>
+        <v>0.02196807817222676</v>
       </c>
     </row>
   </sheetData>
